--- a/memos/sample.xlsx
+++ b/memos/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FEB0C-5362-4C11-9B43-219295FAE895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EF12C-7D86-4EAF-A5C1-CC91BA9895EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="660">
   <si>
     <t>nvarchar</t>
   </si>
@@ -2026,6 +2026,22 @@
   </si>
   <si>
     <t>FA00009</t>
+  </si>
+  <si>
+    <t>CodeClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2415,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M313"/>
+  <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2432,9 +2448,10 @@
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>334</v>
       </c>
@@ -2472,10 +2489,15 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2511,8 +2533,11 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2548,8 +2573,11 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2584,9 +2612,14 @@
         <v>6</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2621,9 +2654,14 @@
         <v>6</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2659,8 +2697,11 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2696,8 +2737,11 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2733,8 +2777,11 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2772,8 +2819,11 @@
         <v>14</v>
       </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2809,8 +2859,11 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2848,8 +2901,11 @@
         <v>21</v>
       </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2885,8 +2941,11 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2922,8 +2981,11 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2959,8 +3021,11 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2996,8 +3061,11 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3033,8 +3101,11 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3070,8 +3141,11 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3107,8 +3181,11 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3144,8 +3221,11 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3180,9 +3260,14 @@
         <v>7</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3217,9 +3302,14 @@
         <v>7</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3254,9 +3344,14 @@
         <v>7</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3292,8 +3387,11 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3329,8 +3427,11 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3366,8 +3467,11 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3403,8 +3507,11 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3440,8 +3547,11 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3477,8 +3587,11 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3514,8 +3627,11 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3551,8 +3667,11 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3588,8 +3707,11 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3625,8 +3747,11 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3662,8 +3787,11 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3699,8 +3827,11 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3736,8 +3867,11 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3773,8 +3907,11 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3810,8 +3947,11 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3847,8 +3987,11 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3884,8 +4027,11 @@
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3921,8 +4067,11 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3958,8 +4107,11 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3995,8 +4147,11 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4032,8 +4187,11 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4069,8 +4227,11 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4106,8 +4267,11 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4143,8 +4307,11 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4180,8 +4347,11 @@
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4217,8 +4387,11 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4254,8 +4427,11 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4291,8 +4467,11 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4328,8 +4507,11 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4365,8 +4547,11 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4402,8 +4587,11 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4439,8 +4627,11 @@
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4476,8 +4667,11 @@
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4513,8 +4707,11 @@
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4550,8 +4747,11 @@
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4587,8 +4787,11 @@
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4624,8 +4827,11 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4661,8 +4867,11 @@
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4700,8 +4909,11 @@
         <v>15</v>
       </c>
       <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4737,8 +4949,11 @@
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4774,8 +4989,11 @@
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4811,8 +5029,11 @@
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4848,8 +5069,11 @@
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4885,8 +5109,11 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4922,8 +5149,11 @@
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4959,8 +5189,11 @@
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4996,8 +5229,11 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5033,8 +5269,11 @@
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5070,8 +5309,11 @@
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5107,8 +5349,11 @@
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5144,8 +5389,11 @@
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5181,8 +5429,11 @@
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5218,8 +5469,11 @@
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5255,8 +5509,11 @@
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5292,8 +5549,11 @@
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5329,8 +5589,11 @@
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5366,8 +5629,11 @@
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5403,8 +5669,11 @@
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5440,8 +5709,11 @@
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5477,8 +5749,11 @@
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5514,8 +5789,11 @@
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5551,8 +5829,11 @@
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5588,8 +5869,11 @@
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5625,8 +5909,11 @@
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5662,8 +5949,11 @@
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5699,8 +5989,11 @@
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5736,8 +6029,11 @@
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5773,8 +6069,11 @@
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5810,8 +6109,11 @@
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5847,8 +6149,11 @@
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5884,8 +6189,11 @@
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5921,8 +6229,11 @@
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5958,8 +6269,11 @@
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5995,8 +6309,11 @@
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6032,8 +6349,11 @@
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6069,8 +6389,11 @@
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6106,8 +6429,11 @@
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6143,8 +6469,11 @@
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6180,8 +6509,11 @@
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6217,8 +6549,11 @@
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6254,8 +6589,11 @@
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6291,8 +6629,11 @@
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6328,8 +6669,11 @@
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6365,8 +6709,11 @@
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6402,8 +6749,11 @@
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6439,8 +6789,11 @@
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6476,8 +6829,11 @@
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6513,8 +6869,11 @@
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6550,8 +6909,11 @@
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6587,8 +6949,11 @@
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6624,8 +6989,11 @@
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6661,8 +7029,11 @@
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6698,8 +7069,11 @@
       </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6735,8 +7109,11 @@
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6772,8 +7149,11 @@
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6809,8 +7189,11 @@
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6846,8 +7229,11 @@
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6883,8 +7269,11 @@
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6920,8 +7309,11 @@
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6957,8 +7349,11 @@
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6994,8 +7389,11 @@
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7031,8 +7429,11 @@
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7068,8 +7469,11 @@
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7105,8 +7509,11 @@
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7142,8 +7549,11 @@
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7179,8 +7589,11 @@
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7216,8 +7629,11 @@
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7253,8 +7669,11 @@
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7290,8 +7709,11 @@
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7327,8 +7749,11 @@
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7364,8 +7789,11 @@
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7401,8 +7829,11 @@
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7438,8 +7869,11 @@
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7475,8 +7909,11 @@
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7512,8 +7949,11 @@
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7551,8 +7991,11 @@
         <v>16</v>
       </c>
       <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7588,8 +8031,11 @@
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7625,8 +8071,11 @@
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7662,8 +8111,11 @@
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7699,8 +8151,11 @@
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7736,8 +8191,11 @@
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7773,8 +8231,11 @@
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7810,8 +8271,11 @@
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7847,8 +8311,11 @@
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7884,8 +8351,11 @@
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7921,8 +8391,11 @@
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7958,8 +8431,11 @@
       </c>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7995,8 +8471,11 @@
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8032,8 +8511,11 @@
       </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8069,8 +8551,11 @@
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8106,8 +8591,11 @@
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8143,8 +8631,11 @@
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8180,8 +8671,11 @@
       </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8217,8 +8711,11 @@
       </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8254,8 +8751,11 @@
       </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8291,8 +8791,11 @@
       </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8328,8 +8831,11 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8365,8 +8871,11 @@
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8402,8 +8911,11 @@
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8439,8 +8951,11 @@
       </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8476,8 +8991,11 @@
       </c>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8513,8 +9031,11 @@
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8550,8 +9071,11 @@
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8587,8 +9111,11 @@
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8624,8 +9151,11 @@
       </c>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8661,8 +9191,11 @@
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8698,8 +9231,11 @@
       </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8735,8 +9271,11 @@
       </c>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8772,8 +9311,11 @@
       </c>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8809,8 +9351,11 @@
       </c>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8846,8 +9391,11 @@
       </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8883,8 +9431,11 @@
       </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8920,8 +9471,11 @@
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8957,8 +9511,11 @@
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8994,8 +9551,11 @@
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9031,8 +9591,11 @@
       </c>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9068,8 +9631,11 @@
       </c>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9105,8 +9671,11 @@
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9142,8 +9711,11 @@
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9179,8 +9751,11 @@
       </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9216,8 +9791,11 @@
       </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9253,8 +9831,11 @@
       </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9290,8 +9871,11 @@
       </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9327,8 +9911,11 @@
       </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9364,8 +9951,11 @@
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9401,8 +9991,11 @@
       </c>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9438,8 +10031,11 @@
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9475,8 +10071,11 @@
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9512,8 +10111,11 @@
       </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -9549,8 +10151,11 @@
       </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -9586,8 +10191,11 @@
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -9623,8 +10231,11 @@
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -9660,8 +10271,11 @@
       </c>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -9697,8 +10311,11 @@
       </c>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -9734,8 +10351,11 @@
       </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -9771,8 +10391,11 @@
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -9808,8 +10431,11 @@
       </c>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -9845,8 +10471,11 @@
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -9882,8 +10511,11 @@
       </c>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -9919,8 +10551,11 @@
       </c>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -9956,8 +10591,11 @@
       </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -9993,8 +10631,11 @@
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10030,8 +10671,11 @@
       </c>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10067,8 +10711,11 @@
       </c>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -10104,8 +10751,11 @@
       </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -10141,8 +10791,11 @@
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -10178,8 +10831,11 @@
       </c>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10215,8 +10871,11 @@
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10252,8 +10911,11 @@
       </c>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10291,8 +10953,11 @@
         <v>17</v>
       </c>
       <c r="M212" s="1"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10328,8 +10993,11 @@
       </c>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -10365,8 +11033,11 @@
       </c>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -10402,8 +11073,11 @@
       </c>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -10439,8 +11113,11 @@
       </c>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -10476,8 +11153,11 @@
       </c>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -10513,8 +11193,11 @@
       </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -10550,8 +11233,11 @@
       </c>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -10587,8 +11273,11 @@
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -10624,8 +11313,11 @@
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -10661,8 +11353,11 @@
       </c>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -10698,8 +11393,11 @@
       </c>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -10735,8 +11433,11 @@
       </c>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -10772,8 +11473,11 @@
       </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -10809,8 +11513,11 @@
       </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -10846,8 +11553,11 @@
       </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -10883,8 +11593,11 @@
       </c>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -10920,8 +11633,11 @@
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -10957,8 +11673,11 @@
       </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -10994,8 +11713,11 @@
       </c>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11031,8 +11753,11 @@
       </c>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11068,8 +11793,11 @@
       </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11105,8 +11833,11 @@
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11142,8 +11873,11 @@
       </c>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11179,8 +11913,11 @@
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11216,8 +11953,11 @@
       </c>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11253,8 +11993,11 @@
       </c>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11290,8 +12033,11 @@
       </c>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11327,8 +12073,11 @@
       </c>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11364,8 +12113,11 @@
       </c>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11401,8 +12153,11 @@
       </c>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -11438,8 +12193,11 @@
       </c>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11475,8 +12233,11 @@
       </c>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11512,8 +12273,11 @@
       </c>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11549,8 +12313,11 @@
       </c>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11586,8 +12353,11 @@
       </c>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -11623,8 +12393,11 @@
       </c>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11660,8 +12433,11 @@
       </c>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -11697,8 +12473,11 @@
       </c>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11734,8 +12513,11 @@
       </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11771,8 +12553,11 @@
       </c>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -11808,8 +12593,11 @@
       </c>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -11845,8 +12633,11 @@
       </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -11882,8 +12673,11 @@
       </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -11919,8 +12713,11 @@
       </c>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -11956,8 +12753,11 @@
       </c>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -11993,8 +12793,11 @@
       </c>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -12030,8 +12833,11 @@
       </c>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -12067,8 +12873,11 @@
       </c>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -12104,8 +12913,11 @@
       </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -12141,8 +12953,11 @@
       </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -12178,8 +12993,11 @@
       </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -12215,8 +13033,11 @@
       </c>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -12252,8 +13073,11 @@
       </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12289,8 +13113,11 @@
       </c>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12326,8 +13153,11 @@
       </c>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12363,8 +13193,11 @@
       </c>
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -12400,8 +13233,11 @@
       </c>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12437,8 +13273,11 @@
       </c>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -12474,8 +13313,11 @@
       </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -12513,8 +13355,11 @@
         <v>18</v>
       </c>
       <c r="M272" s="1"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12550,8 +13395,11 @@
       </c>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -12587,8 +13435,11 @@
       </c>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12624,8 +13475,11 @@
       </c>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -12661,8 +13515,11 @@
       </c>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -12698,8 +13555,11 @@
       </c>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -12735,8 +13595,11 @@
       </c>
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -12772,8 +13635,11 @@
       </c>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -12809,8 +13675,11 @@
       </c>
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -12846,8 +13715,11 @@
       </c>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -12883,8 +13755,11 @@
       </c>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -12920,8 +13795,11 @@
       </c>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -12957,8 +13835,11 @@
       </c>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -12994,8 +13875,11 @@
       </c>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -13031,8 +13915,11 @@
       </c>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -13068,8 +13955,11 @@
       </c>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -13105,8 +13995,11 @@
       </c>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -13142,8 +14035,11 @@
       </c>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -13179,8 +14075,11 @@
       </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -13216,8 +14115,11 @@
       </c>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -13253,8 +14155,11 @@
       </c>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -13290,8 +14195,11 @@
       </c>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -13327,8 +14235,11 @@
       </c>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -13364,8 +14275,11 @@
       </c>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -13401,8 +14315,11 @@
       </c>
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -13438,8 +14355,11 @@
       </c>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -13475,8 +14395,11 @@
       </c>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -13512,8 +14435,11 @@
       </c>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -13549,8 +14475,11 @@
       </c>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -13586,8 +14515,11 @@
       </c>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -13623,8 +14555,11 @@
       </c>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -13662,8 +14597,11 @@
         <v>19</v>
       </c>
       <c r="M303" s="1"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -13699,8 +14637,11 @@
       </c>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -13736,8 +14677,11 @@
       </c>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -13773,8 +14717,11 @@
       </c>
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -13810,8 +14757,11 @@
       </c>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -13847,8 +14797,11 @@
       </c>
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -13884,8 +14837,11 @@
       </c>
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -13921,8 +14877,11 @@
       </c>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -13958,8 +14917,11 @@
       </c>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -13995,8 +14957,11 @@
       </c>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -14032,6 +14997,9 @@
       </c>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
